--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_4_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_4_28.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61072.68991244079</v>
+        <v>4443787.454660914</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61072.68991244079</v>
+        <v>4443787.454660914</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1609509402.033883</v>
+        <v>61758724.18277244</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14451.42895544634</v>
+        <v>1390296.919726434</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28510.18748887924</v>
+        <v>2712642.812075658</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42568.94602231212</v>
+        <v>4034988.704424884</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>59427.50327343139</v>
+        <v>5137984.46768026</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>74967.19634826241</v>
+        <v>6379717.670898935</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>90506.88942309344</v>
+        <v>7621450.874117601</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>106046.5824979211</v>
+        <v>8863184.077336658</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>121586.2755727488</v>
+        <v>10104917.28055571</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>138444.8328238653</v>
+        <v>11207913.04381143</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>153984.5258986862</v>
+        <v>12449646.24703126</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>169524.2189735076</v>
+        <v>13691379.45025104</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>185063.9120483319</v>
+        <v>14933112.65347049</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>200603.6051231562</v>
+        <v>16174845.85668995</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>216913.5199265987</v>
+        <v>17333344.49309675</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>236906.4457861641</v>
+        <v>18036748.681658</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>133.0000000001133</v>
@@ -27052,13 +27052,13 @@
         <v>83.00000000011413</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>2.328022219444392e-10</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>49.99999999988668</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
